--- a/Dokumentaatio/Tuntikirjanpitoa.xlsx
+++ b/Dokumentaatio/Tuntikirjanpitoa.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93e9b65c7ea9229f/Documents/koulu/tkt/ohtu/miniprojekti/ryhma16/Dokumentaatio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A059A80-B5ED-4DA3-ACFB-E7DBFE6682B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{2A059A80-B5ED-4DA3-ACFB-E7DBFE6682B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F151AE4-AD3A-4D6F-A5A1-EEA0B0CA83E3}"/>
   <bookViews>
-    <workbookView xWindow="7785" yWindow="900" windowWidth="19380" windowHeight="11385" xr2:uid="{93DED8CF-8FC2-4759-B3A9-EA8F0C6BF5A8}"/>
+    <workbookView xWindow="7365" yWindow="2175" windowWidth="19380" windowHeight="11385" activeTab="2" xr2:uid="{93DED8CF-8FC2-4759-B3A9-EA8F0C6BF5A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Ensimmäinen viikko tunnit" sheetId="1" r:id="rId1"/>
     <sheet name="Ensimmäinen viikko taskit" sheetId="2" r:id="rId2"/>
+    <sheet name="Toisen viikon tunnit" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
   <si>
     <t>Atte</t>
   </si>
@@ -137,6 +138,9 @@
   </si>
   <si>
     <t>Tehty</t>
+  </si>
+  <si>
+    <t>Odotellaan infoa</t>
   </si>
 </sst>
 </file>
@@ -1718,6 +1722,986 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Toisen viikon tuntikirjaus</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21777077865266842"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Atte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$C$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$C$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67D9-458B-9B13-159B13055158}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lauri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$C$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$C$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-67D9-458B-9B13-159B13055158}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dennis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$C$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$C$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-67D9-458B-9B13-159B13055158}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sonja</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$C$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$C$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-67D9-458B-9B13-159B13055158}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sami</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$C$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$C$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-67D9-458B-9B13-159B13055158}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ossi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$C$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ensimmäinen viikko tunnit'!$C$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-67D9-458B-9B13-159B13055158}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="300"/>
+        <c:axId val="422867520"/>
+        <c:axId val="286061440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="422867520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ajanhetki</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286061440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="286061440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Käytetty aika (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422867520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1798,6 +2782,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2763,6 +3787,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2861,6 +4388,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Kaavio 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA143E1E-D47E-4ED7-BAB1-636FEC09557A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3176,8 +4746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EB0CCA-0523-4C98-AB42-4C8E5DCF0E49}">
   <dimension ref="B2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,4 +5303,231 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFD0779-CDB8-401D-B376-7ADA8C60B602}">
+  <dimension ref="B2:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f>SUM(C3:I3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J8" si="0">SUM(C4:I4)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dokumentaatio/Tuntikirjanpitoa.xlsx
+++ b/Dokumentaatio/Tuntikirjanpitoa.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93e9b65c7ea9229f/Documents/koulu/tkt/ohtu/miniprojekti/ryhma16/Dokumentaatio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{2A059A80-B5ED-4DA3-ACFB-E7DBFE6682B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F151AE4-AD3A-4D6F-A5A1-EEA0B0CA83E3}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{2A059A80-B5ED-4DA3-ACFB-E7DBFE6682B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5D106C1-5BCA-47C9-9324-B1F328A0BEE4}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="2175" windowWidth="19380" windowHeight="11385" activeTab="2" xr2:uid="{93DED8CF-8FC2-4759-B3A9-EA8F0C6BF5A8}"/>
+    <workbookView xWindow="15465" yWindow="1695" windowWidth="19380" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{93DED8CF-8FC2-4759-B3A9-EA8F0C6BF5A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Ensimmäinen viikko tunnit" sheetId="1" r:id="rId1"/>
     <sheet name="Ensimmäinen viikko taskit" sheetId="2" r:id="rId2"/>
     <sheet name="Toisen viikon tunnit" sheetId="3" r:id="rId3"/>
+    <sheet name="Toisen viikon taskit" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
   <si>
     <t>Atte</t>
   </si>
@@ -141,6 +142,42 @@
   </si>
   <si>
     <t>Odotellaan infoa</t>
+  </si>
+  <si>
+    <t>Burndown päivitys</t>
+  </si>
+  <si>
+    <t>Haku case insensitive</t>
+  </si>
+  <si>
+    <t>InputIO refaktorointi</t>
+  </si>
+  <si>
+    <t>Vinkin poistaminen</t>
+  </si>
+  <si>
+    <t>Graafinen käyttöliittymä</t>
+  </si>
+  <si>
+    <t>Jacocon käyttöönottoa</t>
+  </si>
+  <si>
+    <t>Videon lisäys</t>
+  </si>
+  <si>
+    <t>Yksikkötestit</t>
+  </si>
+  <si>
+    <t>Vinkin poistaminen, artikkelin lisäys</t>
+  </si>
+  <si>
+    <t>ReadME:n päivitys</t>
+  </si>
+  <si>
+    <t>Graafinen käyttöliittymä, yksikkötestit, linkin avaaminen</t>
+  </si>
+  <si>
+    <t>Graafinen käyttöliittymä, yksikkötestit, release</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1803,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21777077865266842"/>
+          <c:x val="0.29832633420822396"/>
           <c:y val="4.6296296296296294E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1811,7 +1848,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$B$3</c:f>
+              <c:f>'Toisen viikon tunnit'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1832,7 +1869,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$C$2:$J$2</c:f>
+              <c:f>'Toisen viikon tunnit'!$C$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1864,33 +1901,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$C$3:$J$3</c:f>
+              <c:f>'Toisen viikon tunnit'!$C$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1906,7 +1943,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$B$4</c:f>
+              <c:f>'Toisen viikon tunnit'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1927,7 +1964,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$C$2:$J$2</c:f>
+              <c:f>'Toisen viikon tunnit'!$C$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1959,7 +1996,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$C$4:$J$4</c:f>
+              <c:f>'Toisen viikon tunnit'!$C$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1970,16 +2007,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2001,7 +2038,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$B$5</c:f>
+              <c:f>'Toisen viikon tunnit'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2022,7 +2059,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$C$2:$J$2</c:f>
+              <c:f>'Toisen viikon tunnit'!$C$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2054,7 +2091,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$C$5:$J$5</c:f>
+              <c:f>'Toisen viikon tunnit'!$C$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2068,19 +2105,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2096,7 +2133,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$B$6</c:f>
+              <c:f>'Toisen viikon tunnit'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2117,7 +2154,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$C$2:$J$2</c:f>
+              <c:f>'Toisen viikon tunnit'!$C$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2149,7 +2186,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$C$6:$J$6</c:f>
+              <c:f>'Toisen viikon tunnit'!$C$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2163,19 +2200,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2191,7 +2228,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$B$7</c:f>
+              <c:f>'Toisen viikon tunnit'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2212,7 +2249,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$C$2:$J$2</c:f>
+              <c:f>'Toisen viikon tunnit'!$C$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2244,7 +2281,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$C$7:$J$7</c:f>
+              <c:f>'Toisen viikon tunnit'!$C$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2252,7 +2289,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2261,7 +2298,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2270,7 +2307,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2286,7 +2323,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$B$8</c:f>
+              <c:f>'Toisen viikon tunnit'!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2307,7 +2344,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$C$2:$J$2</c:f>
+              <c:f>'Toisen viikon tunnit'!$C$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2339,7 +2376,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ensimmäinen viikko tunnit'!$C$8:$J$8</c:f>
+              <c:f>'Toisen viikon tunnit'!$C$8:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2359,13 +2396,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,6 +2739,519 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Taskien suoritus toisen</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>viikon aikana</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Toisen viikon taskit'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jäljellä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Toisen viikon taskit'!$G$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Toisen viikon taskit'!$G$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4CD-4CD7-A5ED-A667D91305C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Toisen viikon taskit'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tehty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Toisen viikon taskit'!$G$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Toisen viikon taskit'!$G$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F4CD-4CD7-A5ED-A667D91305C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="538122688"/>
+        <c:axId val="491445408"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="538122688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491445408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491445408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538122688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2822,6 +3372,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4290,6 +4880,500 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4425,6 +5509,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA143E1E-D47E-4ED7-BAB1-636FEC09557A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Kaavio 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C75F4A8-31A5-4B3C-A4A4-B6E3C45F7099}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4973,7 +6100,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="A1:D17"/>
+      <selection activeCell="N4" sqref="F1:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5309,8 +6436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFD0779-CDB8-401D-B376-7ADA8C60B602}">
   <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5469,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5478,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -5488,7 +6615,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -5514,16 +6641,450 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42ADF38-9FB5-4534-9DB2-D87766BDC536}">
+  <dimension ref="B1:T19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>16</v>
+      </c>
+      <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>12</v>
+      </c>
+      <c r="S5">
+        <v>15</v>
+      </c>
+      <c r="T5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6">
+        <v>16</v>
+      </c>
+      <c r="T6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentaatio/Tuntikirjanpitoa.xlsx
+++ b/Dokumentaatio/Tuntikirjanpitoa.xlsx
@@ -1,23 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93e9b65c7ea9229f/Documents/koulu/tkt/ohtu/miniprojekti/ryhma16/Dokumentaatio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93e9b65c7ea9229f/Documents/koulu/tkt/ohtu/kloonit/ryhma16/Dokumentaatio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{2A059A80-B5ED-4DA3-ACFB-E7DBFE6682B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5D106C1-5BCA-47C9-9324-B1F328A0BEE4}"/>
+  <xr:revisionPtr revIDLastSave="414" documentId="8_{2A059A80-B5ED-4DA3-ACFB-E7DBFE6682B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A8B4232-22B6-4843-976F-293AF4F3DED2}"/>
   <bookViews>
-    <workbookView xWindow="15465" yWindow="1695" windowWidth="19380" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{93DED8CF-8FC2-4759-B3A9-EA8F0C6BF5A8}"/>
+    <workbookView xWindow="5685" yWindow="3975" windowWidth="19380" windowHeight="11385" firstSheet="3" activeTab="5" xr2:uid="{93DED8CF-8FC2-4759-B3A9-EA8F0C6BF5A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Ensimmäinen viikko tunnit" sheetId="1" r:id="rId1"/>
     <sheet name="Ensimmäinen viikko taskit" sheetId="2" r:id="rId2"/>
     <sheet name="Toisen viikon tunnit" sheetId="3" r:id="rId3"/>
     <sheet name="Toisen viikon taskit" sheetId="4" r:id="rId4"/>
+    <sheet name="Kolmannen viikon tunnit" sheetId="5" r:id="rId5"/>
+    <sheet name="Kolmannen viikon taskit" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Kolmannen viikon taskit'!$F$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Kolmannen viikon taskit'!$F$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Kolmannen viikon taskit'!$G$3:$S$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Kolmannen viikon taskit'!$G$4:$S$4</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Kolmannen viikon taskit'!$G$5:$S$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Kolmannen viikon taskit'!$F$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Kolmannen viikon taskit'!$F$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Kolmannen viikon taskit'!$G$3:$S$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Kolmannen viikon taskit'!$G$4:$S$4</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Kolmannen viikon taskit'!$G$5:$S$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="64">
   <si>
     <t>Atte</t>
   </si>
@@ -179,18 +193,81 @@
   <si>
     <t>Graafinen käyttöliittymä, yksikkötestit, release</t>
   </si>
+  <si>
+    <t>ma2</t>
+  </si>
+  <si>
+    <t>ti2</t>
+  </si>
+  <si>
+    <t>ke2</t>
+  </si>
+  <si>
+    <t>to2</t>
+  </si>
+  <si>
+    <t>pe2</t>
+  </si>
+  <si>
+    <t>Syötteen validointoi</t>
+  </si>
+  <si>
+    <t>CSS-muotoilu</t>
+  </si>
+  <si>
+    <t>Cucumber-testit</t>
+  </si>
+  <si>
+    <t>Tagien lisääminen</t>
+  </si>
+  <si>
+    <t>Vinkin muokkaaminen</t>
+  </si>
+  <si>
+    <t>Luettu sivumäärä</t>
+  </si>
+  <si>
+    <t>Vinkkien listaus sivuilla</t>
+  </si>
+  <si>
+    <t>Mainin refaktorointi</t>
+  </si>
+  <si>
+    <t>Cucumber-testit muokkaukselle</t>
+  </si>
+  <si>
+    <t>Vinkin muokkaamisen korjaukset</t>
+  </si>
+  <si>
+    <t>Listaa, hae ja poista</t>
+  </si>
+  <si>
+    <t>Testien debuggaus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -265,6 +342,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -3252,6 +3331,1724 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Kolmannen viikon tuntikirjaus</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-FI">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Kolmannen viikon tunnit'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Atte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Kolmannen viikon tunnit'!$C$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ma2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ti2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ke2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>to2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>pe2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Kolmannen viikon tunnit'!$C$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17E2-43A7-8C49-7BA58BB768DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Kolmannen viikon tunnit'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lauri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Kolmannen viikon tunnit'!$C$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ma2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ti2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ke2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>to2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>pe2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Kolmannen viikon tunnit'!$C$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17E2-43A7-8C49-7BA58BB768DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Kolmannen viikon tunnit'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dennis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Kolmannen viikon tunnit'!$C$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ma2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ti2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ke2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>to2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>pe2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Kolmannen viikon tunnit'!$C$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-17E2-43A7-8C49-7BA58BB768DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Kolmannen viikon tunnit'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sonja</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Kolmannen viikon tunnit'!$C$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ma2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ti2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ke2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>to2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>pe2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Kolmannen viikon tunnit'!$C$6:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-17E2-43A7-8C49-7BA58BB768DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Kolmannen viikon tunnit'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sami</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Kolmannen viikon tunnit'!$C$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ma2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ti2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ke2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>to2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>pe2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Kolmannen viikon tunnit'!$C$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-17E2-43A7-8C49-7BA58BB768DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Kolmannen viikon tunnit'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ossi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Kolmannen viikon tunnit'!$C$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ma2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ti2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ke2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>to2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>pe2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Kolmannen viikon tunnit'!$C$8:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-17E2-43A7-8C49-7BA58BB768DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="300"/>
+        <c:axId val="1265673392"/>
+        <c:axId val="1265663824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1265673392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ajanhetki</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1265663824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1265663824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Käytetty</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> aika (h)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1265673392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Taskien suoritus kolmannen viikon aikana</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-FI">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11484711286089239"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Kolmannen viikon taskit'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jäljellä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Kolmannen viikon taskit'!$G$3:$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ma2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ti2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ke2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>to2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>pe2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Kolmannen viikon taskit'!$G$4:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-182A-44E7-903D-6AE218E1CF6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Kolmannen viikon taskit'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tehty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Kolmannen viikon taskit'!$G$3:$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>ma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ke</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>to</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>la</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>su</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ma2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ti2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ke2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>to2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>pe2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Yhteensä</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Kolmannen viikon taskit'!$G$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-182A-44E7-903D-6AE218E1CF6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="1310940640"/>
+        <c:axId val="1310945216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1310940640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1310945216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1310945216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1310940640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3412,6 +5209,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4936,6 +6813,1014 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -5558,6 +8443,88 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Kaavio 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C35ABA-4A3B-4FDC-8368-C1C59FD7D421}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Kaavio 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3303033-3527-455A-9E29-56911A767861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6437,7 +9404,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6663,8 +9630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42ADF38-9FB5-4534-9DB2-D87766BDC536}">
   <dimension ref="B1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7091,4 +10058,673 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339AEBAC-71C0-4054-BEAC-AB1DAB164834}">
+  <dimension ref="B2:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>SUM(C3:N3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O8" si="0">SUM(C4:N4)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2.5</v>
+      </c>
+      <c r="I6">
+        <v>1.5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>4.5</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.5</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D83DA16-328E-4BAA-B5B3-35072BF3EBBC}">
+  <dimension ref="B2:S16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="B3:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <v>9</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5">
+        <v>13</v>
+      </c>
+      <c r="S5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>